--- a/DocumentReport/Template1_Project-Tracking.xlsx
+++ b/DocumentReport/Template1_Project-Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.FPT_SE_1609\SPRING_2024\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.FPT_SE_1609\SPRING_2024\ProjectGit\SWP391_SPRING2024\DocumentReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F0878E-CA6E-4CBC-BDBD-1CE5F725804C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C985AF2D-051B-4DBA-A1B4-17044B2BD80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="1596" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Cases" sheetId="30" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -267,12 +267,27 @@
   <si>
     <t>View User</t>
   </si>
+  <si>
+    <t>Captcha</t>
+  </si>
+  <si>
+    <t>Phân quyền</t>
+  </si>
+  <si>
+    <t>Send Email</t>
+  </si>
+  <si>
+    <t>Search Jquerry ajax</t>
+  </si>
+  <si>
+    <t>Register, Forgot password</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -334,18 +349,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -411,7 +414,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -455,9 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -680,16 +680,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8823AC5D-9468-334D-B4DC-B52F83B1EECC}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="12"/>
@@ -717,7 +717,7 @@
       <c r="G1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="15" t="s">
@@ -747,8 +747,8 @@
       <c r="G2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -773,7 +773,7 @@
       <c r="G3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="12" t="s">
         <v>61</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="G4" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="12" t="s">
         <v>61</v>
       </c>
@@ -825,7 +825,7 @@
       <c r="G5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="12" t="s">
         <v>62</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="G6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="12" t="s">
         <v>62</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="G7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="12" t="s">
         <v>62</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="B8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -897,7 +897,7 @@
       <c r="G8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="12" t="s">
         <v>61</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="G9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="12" t="s">
         <v>61</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="G10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="12" t="s">
         <v>61</v>
       </c>
@@ -975,62 +975,78 @@
       <c r="G11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="21"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="21"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
@@ -1043,7 +1059,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="21"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1056,7 +1072,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="21"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -1069,7 +1085,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="21"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1082,7 +1098,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -1095,7 +1111,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="21"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -1108,7 +1124,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1121,7 +1137,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="21"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -1134,7 +1150,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="21"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1147,7 +1163,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="21"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -1160,7 +1176,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="21"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -1173,7 +1189,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="21"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -1186,7 +1202,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
@@ -1199,7 +1215,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="21"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
@@ -1212,7 +1228,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="21"/>
+      <c r="H29" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1227,9 +1243,9 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1453,11 +1469,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1493,14 +1509,14 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>19</v>
+      <c r="B2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -1509,20 +1525,203 @@
         <f>ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A15" si="0">ROW()-1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="B14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/DocumentReport/Template1_Project-Tracking.xlsx
+++ b/DocumentReport/Template1_Project-Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.FPT_SE_1609\SPRING_2024\ProjectGit\SWP391_SPRING2024\DocumentReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C985AF2D-051B-4DBA-A1B4-17044B2BD80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA3D9BA-5DEA-4D71-BA01-6384436233C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Cases" sheetId="30" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Update Profile</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Hung</t>
@@ -680,9 +677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8823AC5D-9468-334D-B4DC-B52F83B1EECC}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G11"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -714,14 +711,12 @@
       <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="G1" s="15"/>
       <c r="H1" s="17" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -744,12 +739,10 @@
       <c r="F2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="G2" s="16"/>
       <c r="H2" s="18"/>
       <c r="I2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -770,12 +763,10 @@
         <v>42</v>
       </c>
       <c r="F3" s="16"/>
-      <c r="G3" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="G3" s="16"/>
       <c r="H3" s="18"/>
       <c r="I3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,12 +785,10 @@
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
-        <v>56</v>
-      </c>
+      <c r="G4" s="16"/>
       <c r="H4" s="18"/>
       <c r="I4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -822,12 +811,10 @@
       <c r="F5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="18"/>
       <c r="I5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -846,12 +833,10 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="G6" s="16"/>
       <c r="H6" s="18"/>
       <c r="I6" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -870,12 +855,10 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="G7" s="16"/>
       <c r="H7" s="18"/>
       <c r="I7" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -887,19 +870,17 @@
         <v>51</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -920,12 +901,10 @@
         <v>42</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="18"/>
       <c r="I9" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -946,12 +925,10 @@
         <v>42</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="G10" s="16"/>
       <c r="H10" s="18"/>
       <c r="I10" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -972,12 +949,10 @@
         <v>42</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="G11" s="16"/>
       <c r="H11" s="18"/>
       <c r="I11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -986,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>47</v>
@@ -1003,10 +978,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1020,7 +995,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>41</v>
@@ -1037,7 +1012,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>46</v>
@@ -1471,9 +1446,9 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1488,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1529,7 +1504,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -1538,14 +1513,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A15" si="0">ROW()-1</f>
+        <f t="shared" ref="A4:A14" si="0">ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
@@ -1561,7 +1536,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
@@ -1577,7 +1552,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -1590,10 +1565,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -1609,7 +1584,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -1625,7 +1600,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -1641,7 +1616,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>15</v>
@@ -1654,10 +1629,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
@@ -1670,10 +1645,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
@@ -1686,10 +1661,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>15</v>
@@ -1702,10 +1677,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>

--- a/DocumentReport/Template1_Project-Tracking.xlsx
+++ b/DocumentReport/Template1_Project-Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.FPT_SE_1609\SPRING_2024\ProjectGit\SWP391_SPRING2024\DocumentReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA3D9BA-5DEA-4D71-BA01-6384436233C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018975E5-6C19-4238-9B38-B5390634DCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="276" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Cases" sheetId="30" r:id="rId1"/>
@@ -677,9 +677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8823AC5D-9468-334D-B4DC-B52F83B1EECC}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -687,7 +687,9 @@
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="12"/>
   </cols>
@@ -1446,9 +1448,9 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1589,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" s="14"/>
     </row>
@@ -1603,7 +1605,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E9" s="14"/>
     </row>
@@ -1619,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E10" s="14"/>
     </row>
@@ -1635,7 +1637,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E11" s="14"/>
     </row>
@@ -1651,7 +1653,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E12" s="14"/>
     </row>
@@ -1667,7 +1669,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E13" s="14"/>
     </row>
@@ -1683,7 +1685,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E14" s="14"/>
     </row>
@@ -1713,7 +1715,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/DocumentReport/Template1_Project-Tracking.xlsx
+++ b/DocumentReport/Template1_Project-Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.FPT_SE_1609\SPRING_2024\ProjectGit\SWP391_SPRING2024\DocumentReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018975E5-6C19-4238-9B38-B5390634DCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AABAA3-7876-4E62-A02E-1CD77DF71109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="276" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3912" yWindow="1584" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Cases" sheetId="30" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Hoang</t>
   </si>
   <si>
-    <t>Dat</t>
-  </si>
-  <si>
     <t>Chien</t>
   </si>
   <si>
@@ -278,6 +275,69 @@
   </si>
   <si>
     <t>Register, Forgot password</t>
+  </si>
+  <si>
+    <t>Home Screen</t>
+  </si>
+  <si>
+    <t>Login Screen</t>
+  </si>
+  <si>
+    <t>Register Screen</t>
+  </si>
+  <si>
+    <t>View profile Screen</t>
+  </si>
+  <si>
+    <t>Search User Screen</t>
+  </si>
+  <si>
+    <t>Update information function</t>
+  </si>
+  <si>
+    <t>Captcha function</t>
+  </si>
+  <si>
+    <t>Send email function</t>
+  </si>
+  <si>
+    <t>Change password function</t>
+  </si>
+  <si>
+    <t>Logout function</t>
+  </si>
+  <si>
+    <t>Forgot password function</t>
+  </si>
+  <si>
+    <t>md5 hash encryption</t>
+  </si>
+  <si>
+    <t>Session login user</t>
+  </si>
+  <si>
+    <t>Authentication cookie</t>
+  </si>
+  <si>
+    <t>DataAnnotations validate form</t>
+  </si>
+  <si>
+    <t>Ajax jquerry search function</t>
+  </si>
+  <si>
+    <t>Register complete Screen</t>
+  </si>
+  <si>
+    <t>Forgot password Screen</t>
+  </si>
+  <si>
+    <t>Datts</t>
+  </si>
+  <si>
+    <t>Ajax jquerry captcha loader</t>
+  </si>
+  <si>
+    <t>Detail User Screen</t>
   </si>
 </sst>
 </file>
@@ -718,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -744,7 +804,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="18"/>
       <c r="I2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -768,7 +828,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="18"/>
       <c r="I3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -790,7 +850,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="18"/>
       <c r="I4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -816,7 +876,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="18"/>
       <c r="I5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -838,7 +898,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="18"/>
       <c r="I6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -860,7 +920,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="18"/>
       <c r="I7" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -872,7 +932,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>42</v>
@@ -882,7 +942,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="18"/>
       <c r="I8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -906,7 +966,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="18"/>
       <c r="I9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -930,7 +990,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="18"/>
       <c r="I10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -954,7 +1014,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="18"/>
       <c r="I11" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -963,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>47</v>
@@ -980,10 +1040,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -997,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>41</v>
@@ -1014,7 +1074,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>46</v>
@@ -1222,7 +1282,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1446,18 +1506,18 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="56.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" style="2" customWidth="1"/>
@@ -1487,14 +1547,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1503,14 +1561,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,14 +1575,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,14 +1589,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1551,14 +1603,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1567,14 +1617,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1583,14 +1631,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1599,14 +1645,12 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1615,14 +1659,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1631,14 +1673,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1647,14 +1687,12 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1663,14 +1701,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,22 +1715,102 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/DocumentReport/Template1_Project-Tracking.xlsx
+++ b/DocumentReport/Template1_Project-Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.FPT_SE_1609\SPRING_2024\ProjectGit\SWP391_SPRING2024\DocumentReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester5\SWP391\Gitdesktop\SWP391_SPRING2024\DocumentReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AABAA3-7876-4E62-A02E-1CD77DF71109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C9D02-8A4E-44F0-8A63-84D95EFCFD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3912" yWindow="1584" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Cases" sheetId="30" r:id="rId1"/>
@@ -27,6 +27,17 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjddG2oUNhDP2SvNiaGN+ATkLmg5Q=="/>
     </ext>
@@ -69,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="90">
   <si>
     <t>#</t>
   </si>
@@ -338,6 +349,12 @@
   </si>
   <si>
     <t>Detail User Screen</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>List User</t>
   </si>
 </sst>
 </file>
@@ -742,19 +759,19 @@
       <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="12"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -781,7 +798,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <f>ROW()-1</f>
         <v>1</v>
@@ -807,7 +824,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">ROW()-1</f>
         <v>2</v>
@@ -831,7 +848,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -853,7 +870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -879,7 +896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -901,7 +918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -923,7 +940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -945,7 +962,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -969,7 +986,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -993,7 +1010,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1017,7 +1034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1034,7 +1051,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1051,7 +1068,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1068,7 +1085,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1085,7 +1102,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1098,7 +1115,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1111,7 +1128,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1124,7 +1141,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1137,7 +1154,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1150,7 +1167,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1163,7 +1180,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1176,7 +1193,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1189,7 +1206,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1202,7 +1219,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1215,7 +1232,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1228,7 +1245,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1241,7 +1258,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1254,7 +1271,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1285,21 +1302,21 @@
       <selection pane="bottomLeft" activeCell="K9" sqref="K9:K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="2" customWidth="1"/>
     <col min="8" max="10" width="8" style="2" customWidth="1"/>
-    <col min="11" max="11" width="45.44140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.77734375" style="2"/>
+    <col min="11" max="11" width="45.42578125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="109.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1368,7 +1385,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A5" si="0">ROW()-1</f>
         <v>2</v>
@@ -1400,7 +1417,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1430,7 +1447,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1460,7 +1477,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1506,25 +1523,25 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.77734375" style="2"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1555,7 +1572,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>ROW()-1</f>
         <v>2</v>
@@ -1569,7 +1586,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A14" si="0">ROW()-1</f>
         <v>3</v>
@@ -1583,7 +1600,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1597,7 +1614,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1611,7 +1628,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1625,7 +1642,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1639,7 +1656,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1653,7 +1670,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1667,7 +1684,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1681,7 +1698,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1695,7 +1712,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1709,7 +1726,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1723,7 +1740,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1736,7 +1753,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1749,7 +1766,7 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1762,7 +1779,7 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1775,7 +1792,7 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1788,7 +1805,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1801,7 +1818,7 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1810,6 +1827,28 @@
       </c>
       <c r="C21" s="2" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1834,18 +1873,18 @@
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.77734375" style="2"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1862,7 +1901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1878,7 +1917,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>ROW()-1</f>
         <v>2</v>
@@ -1916,18 +1955,18 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.77734375" style="2"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1944,7 +1983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1960,7 +1999,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>ROW()-1</f>
         <v>2</v>

--- a/DocumentReport/Template1_Project-Tracking.xlsx
+++ b/DocumentReport/Template1_Project-Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester5\SWP391\Gitdesktop\SWP391_SPRING2024\DocumentReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C9D02-8A4E-44F0-8A63-84D95EFCFD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327940E7-8A1D-48DA-B028-2659DC06F2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,9 +339,6 @@
     <t>Register complete Screen</t>
   </si>
   <si>
-    <t>Forgot password Screen</t>
-  </si>
-  <si>
     <t>Datts</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>List User</t>
+  </si>
+  <si>
+    <t>Forgot password Success Screen</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1527,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1637,7 +1637,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
@@ -1679,7 +1679,7 @@
         <v>73</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="14"/>
@@ -1693,7 +1693,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="14"/>
@@ -1735,7 +1735,7 @@
         <v>79</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="14"/>
@@ -1748,7 +1748,7 @@
         <v>80</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1774,7 +1774,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>56</v>
@@ -1810,7 +1810,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>54</v>
@@ -1823,33 +1823,39 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/DocumentReport/Template1_Project-Tracking.xlsx
+++ b/DocumentReport/Template1_Project-Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester5\SWP391\Gitdesktop\SWP391_SPRING2024\DocumentReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327940E7-8A1D-48DA-B028-2659DC06F2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E2EAAE-4301-4CCB-8B8D-022252B5F943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,13 +1527,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="56.140625" style="2" customWidth="1"/>
